--- a/config_debug/sign_in_config_server_cjj.xlsx
+++ b/config_debug/sign_in_config_server_cjj.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>no|第几天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,11 +132,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prop_3d_fish_lock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_summon_fish</t>
+    <t>jing_bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -932,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -982,8 +986,8 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>14</v>
+      <c r="B2" s="7">
+        <v>1</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
@@ -1011,8 +1015,8 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>15</v>
+      <c r="B3" s="7">
+        <v>2</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1036,8 +1040,8 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>16</v>
+      <c r="B4" s="7">
+        <v>3</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6">
@@ -1063,8 +1067,8 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>17</v>
+      <c r="B5" s="7">
+        <v>4</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1086,8 +1090,8 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
-        <v>18</v>
+      <c r="B6" s="7">
+        <v>5</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6">
@@ -1113,8 +1117,8 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
-        <v>19</v>
+      <c r="B7" s="7">
+        <v>6</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1136,8 +1140,8 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
-        <v>20</v>
+      <c r="B8" s="7">
+        <v>7</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1497,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1719,10 +1723,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D15" s="11">
-        <v>3000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1733,10 +1737,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="11">
-        <v>3</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1747,10 +1751,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D17" s="11">
-        <v>5000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1761,10 +1765,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D18" s="11">
-        <v>8000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1775,10 +1779,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" s="11">
-        <v>3</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1789,10 +1793,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D20" s="11">
-        <v>10000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1806,7 +1810,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="11">
-        <v>20000</v>
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
